--- a/biology/Médecine/Chlorambucil/Chlorambucil.xlsx
+++ b/biology/Médecine/Chlorambucil/Chlorambucil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le chlorambucil (chloraminophène) est un agent alkylant anticancéreux actif par voie orale. À partir des années 1950, le chlorambucil était le traitement de référence de la leucémie lymphoïde chronique avant l'arrivée de la fludarabine dans les années 1990. Cependant, il reste encore recommandé chez les patients de plus de 65 ans selon les recommandations de la Haute Autorité de Santé ( HAS )[4]. 
+Le chlorambucil (chloraminophène) est un agent alkylant anticancéreux actif par voie orale. À partir des années 1950, le chlorambucil était le traitement de référence de la leucémie lymphoïde chronique avant l'arrivée de la fludarabine dans les années 1990. Cependant, il reste encore recommandé chez les patients de plus de 65 ans selon les recommandations de la Haute Autorité de Santé ( HAS ). 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin des années 1940, le chimiste anglais Alexander Haddow et son équipe entreprennent un ambitieux programme de synthèse et d'étude de composés anticancéreux. Le chlorambucil est l'un d'entre eux.
 </t>
@@ -543,7 +557,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chlorambucil est un agent anticancéreux cytostatique alkylant du groupe des moutardes à l'azote.
 Il lie ensemble les guanines des chaînes ADN afin de former un pont interbrin, une liaison très stable empêchant la réplication de l'ADN. Ceci entraine la mort cellulaire programmée préférentielle des cellules cancéreuses.
@@ -576,7 +592,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Leucémie lymphoïde chronique
 Lymphomes hodgkiniens et non hodgkiniens
@@ -609,7 +627,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hématotoxicité avec risque de lymphocytopénie au long cours
 Aplasie médullaire, troubles hépatiques, gastro-intestinaux, dermatologiques
@@ -617,7 +637,7 @@
 Hyperuricémie
 Toxicité neurologique rare (crise comitiale et coma)
 Nausées et vomissements peu sévères
-Fibrose pulmonaire en cas de traitement chronique[5]</t>
+Fibrose pulmonaire en cas de traitement chronique</t>
         </is>
       </c>
     </row>
@@ -645,9 +665,11 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une surexpression de métallothionéines (normalement observée après intoxication par un ou plusieurs métaux lourds) induit une résistance à un sous-ensemble de médicaments anticancéreux cliniquement importants, dont le chlorambucil (ainsi que le cisplatine (cis-diaminedichloroplatine(II)) et le melphalan)[6], alors que le 5-fluorouracile ou la vincristine restent efficaces[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une surexpression de métallothionéines (normalement observée après intoxication par un ou plusieurs métaux lourds) induit une résistance à un sous-ensemble de médicaments anticancéreux cliniquement importants, dont le chlorambucil (ainsi que le cisplatine (cis-diaminedichloroplatine(II)) et le melphalan), alors que le 5-fluorouracile ou la vincristine restent efficaces.
 </t>
         </is>
       </c>
@@ -676,10 +698,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chlorambucil fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[7].
-En mai 2017, la Commission européenne a annoncé qu'elle ouvrirait une enquête sur les pratiques tarifaires excessives auxquelles se serait livré Aspen Pharma, le laboratoire commercialisant le chlorambucil, dont la boîte, en Angleterre en 2013, coûtait 40,51 livres sterling au lieu de 8,36 livres lorsqu’il était commercialisé par GSK[8],[9].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chlorambucil fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
+En mai 2017, la Commission européenne a annoncé qu'elle ouvrirait une enquête sur les pratiques tarifaires excessives auxquelles se serait livré Aspen Pharma, le laboratoire commercialisant le chlorambucil, dont la boîte, en Angleterre en 2013, coûtait 40,51 livres sterling au lieu de 8,36 livres lorsqu’il était commercialisé par GSK,.
 </t>
         </is>
       </c>
